--- a/DATA/RNAi-screen-summary.xlsx
+++ b/DATA/RNAi-screen-summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m/McKay/BAP_Project/DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73236A58-5C6C-F647-9B38-B33328CF56D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC70889F-B559-C94D-8744-AF67CA254F97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="1160" windowWidth="30940" windowHeight="17940" xr2:uid="{311EEFB7-A5EB-B646-8E38-28D7D4375753}"/>
+    <workbookView xWindow="5180" yWindow="4880" windowWidth="30940" windowHeight="17940" xr2:uid="{311EEFB7-A5EB-B646-8E38-28D7D4375753}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -892,7 +892,7 @@
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="58" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="A8" sqref="A8:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
